--- a/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2018 (F18).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2018 (F18).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,140 +444,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>City's Blessing</t>
+          <t>("City's Blessing", ['Card', 'Elemental', 'Token Creature — Elemental', 'At the beginning of your upkeep, sacrifice this creature and return target card named Rekindling Phoenix from your graveyard to the battlefield. It gains haste until end of turn.', '0/1'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>('Illusion', ['Token Creature — Illusion', 'When this creature becomes the target of a spell, sacrifice it.', '2/2', 'Saproling', 'Token Creature — Saproling', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Token Creature — Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>At the beginning of your upkeep, sacrifice this creature and return target card named Rekindling Phoenix from your graveyard to the battlefield. It gains haste until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Illusion</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Token Creature — Illusion</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>When this creature becomes the target of a spell, sacrifice it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Saproling</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Token Creature — Saproling</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Merfolk</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Token Creature — Merfolk</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Hexproof (This creature can’t be the target of spells or abilities your opponents control.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Treasure</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Token Artifact — Treasure</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>{T}, Sacrifice this artifact: Add one mana of any color.</t>
+          <t>('Merfolk', ['Token Creature — Merfolk', 'Hexproof (This creature can’t be the target of spells or abilities your opponents control.)', '1/1', 'Treasure', 'Token Artifact — Treasure', '{T}, Sacrifice this artifact: Add one mana of any color.'])</t>
         </is>
       </c>
     </row>
